--- a/events.xlsx
+++ b/events.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyt\projekte\scrum_timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50483AE4-46B2-420D-A3E6-FFED416F9939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38282490-435B-4A31-A0D0-2FF1BB7ECA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{A88E9984-2608-4013-A3BE-09F144C42048}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprints" sheetId="3" r:id="rId2"/>
+    <sheet name="Config" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Teammembers">Config!$B$2:$B$10</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Start</t>
   </si>
@@ -81,6 +82,27 @@
   </si>
   <si>
     <t>Raphael</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Pizza consume</t>
+  </si>
+  <si>
+    <t>You eat too much pizza, try something else</t>
+  </si>
+  <si>
+    <t>Prod Credentials</t>
+  </si>
+  <si>
+    <t>Find the new password</t>
   </si>
 </sst>
 </file>
@@ -122,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -439,15 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9F56AA-AFD9-45DE-90BE-D802A7324E25}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -468,6 +492,37 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44532</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44535</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -488,6 +543,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F87EA-45B0-4587-B881-E084DF668FB9}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44531</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44546</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23A20EF-B86F-487F-97A4-3EBB530F2FBA}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyt\projekte\scrum_timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38282490-435B-4A31-A0D0-2FF1BB7ECA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D881A9-E022-40C2-B2AF-20DCD1B178C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{A88E9984-2608-4013-A3BE-09F144C42048}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>44535</v>
+        <v>44545</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyt\projekte\scrum_timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D881A9-E022-40C2-B2AF-20DCD1B178C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C30849E-A4C0-4F3B-AE5A-049F4F77DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{A88E9984-2608-4013-A3BE-09F144C42048}"/>
+    <workbookView xWindow="4572" yWindow="1140" windowWidth="16560" windowHeight="9420" xr2:uid="{A88E9984-2608-4013-A3BE-09F144C42048}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyt\projekte\scrum_timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C30849E-A4C0-4F3B-AE5A-049F4F77DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED8B75-54D7-4FDA-B328-A15DEA628892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4572" yWindow="1140" windowWidth="16560" windowHeight="9420" xr2:uid="{A88E9984-2608-4013-A3BE-09F144C42048}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Start</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Find the new password</t>
+  </si>
+  <si>
+    <t>Too Much Lifting</t>
+  </si>
+  <si>
+    <t>Blow Lab up</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9F56AA-AFD9-45DE-90BE-D802A7324E25}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +529,37 @@
       </c>
       <c r="F3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44532</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44547</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44533</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyt\projekte\scrum_timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED8B75-54D7-4FDA-B328-A15DEA628892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35434D6-FC69-44FB-91D5-75AE2DD3E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4572" yWindow="1140" windowWidth="16560" windowHeight="9420" xr2:uid="{A88E9984-2608-4013-A3BE-09F144C42048}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Start</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Blow Lab up</t>
+  </si>
+  <si>
+    <t>DB Prod Credentials</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9F56AA-AFD9-45DE-90BE-D802A7324E25}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,6 +563,20 @@
       </c>
       <c r="E5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44547</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
